--- a/Excel-XLSX/UN-KGZ.xlsx
+++ b/Excel-XLSX/UN-KGZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>N4r3sX</t>
+    <t>vK49kS</t>
   </si>
   <si>
     <t>1993</t>
@@ -438,727 +438,730 @@
     <t>2023</t>
   </si>
   <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>5569</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>163900</t>
+  </si>
+  <si>
+    <t>8100</t>
+  </si>
+  <si>
+    <t>168600</t>
+  </si>
+  <si>
+    <t>3400</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Dem. People's Rep. of Korea</t>
+  </si>
+  <si>
+    <t>KRN</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LEB</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>13311</t>
+  </si>
+  <si>
+    <t>16436</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>15114</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>13992</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>10141</t>
+  </si>
+  <si>
+    <t>1862</t>
+  </si>
+  <si>
+    <t>9805</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>8367</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>6828</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>4929</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>3472</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>2320</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>726</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
     <t>181</t>
   </si>
   <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>AZE</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>KAZ</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>5569</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>163900</t>
-  </si>
-  <si>
-    <t>8100</t>
-  </si>
-  <si>
-    <t>168600</t>
-  </si>
-  <si>
-    <t>3400</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Dem. People's Rep. of Korea</t>
-  </si>
-  <si>
-    <t>KRN</t>
-  </si>
-  <si>
-    <t>PRK</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>LEB</t>
-  </si>
-  <si>
-    <t>LBN</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>PHL</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>TJK</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>13311</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>16436</t>
-  </si>
-  <si>
-    <t>15114</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>13992</t>
-  </si>
-  <si>
-    <t>1140</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>10141</t>
-  </si>
-  <si>
-    <t>1862</t>
-  </si>
-  <si>
-    <t>9805</t>
-  </si>
-  <si>
-    <t>921</t>
-  </si>
-  <si>
-    <t>8367</t>
-  </si>
-  <si>
-    <t>1190</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>6828</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>4929</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>3472</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>2320</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>5660</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>4551</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>204</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>TKM</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>UZB</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>5660</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>4551</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>204</t>
+    <t>206</t>
   </si>
   <si>
     <t>207</t>
@@ -1170,7 +1173,7 @@
     <t>VEN</t>
   </si>
   <si>
-    <t>206</t>
+    <t>208</t>
   </si>
   <si>
     <t>211</t>
@@ -1182,7 +1185,7 @@
     <t>YEM</t>
   </si>
   <si>
-    <t>208</t>
+    <t>209</t>
   </si>
   <si>
     <t>216</t>
@@ -1200,85 +1203,97 @@
     <t>100000</t>
   </si>
   <si>
-    <t>209</t>
+    <t>210</t>
   </si>
   <si>
     <t>10190</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>9480</t>
   </si>
   <si>
+    <t>212</t>
+  </si>
+  <si>
     <t>19943</t>
   </si>
   <si>
-    <t>212</t>
-  </si>
-  <si>
     <t>24615</t>
   </si>
   <si>
+    <t>214</t>
+  </si>
+  <si>
     <t>21157</t>
   </si>
   <si>
-    <t>214</t>
+    <t>215</t>
   </si>
   <si>
     <t>32300</t>
   </si>
   <si>
-    <t>215</t>
-  </si>
-  <si>
     <t>15473</t>
   </si>
   <si>
+    <t>217</t>
+  </si>
+  <si>
     <t>11425</t>
   </si>
   <si>
-    <t>217</t>
+    <t>218</t>
   </si>
   <si>
     <t>12133</t>
   </si>
   <si>
-    <t>218</t>
-  </si>
-  <si>
     <t>9118</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>2334</t>
   </si>
   <si>
-    <t>220</t>
+    <t>221</t>
   </si>
   <si>
     <t>855</t>
   </si>
   <si>
-    <t>221</t>
-  </si>
-  <si>
     <t>548</t>
   </si>
   <si>
-    <t>222</t>
-  </si>
-  <si>
     <t>224</t>
   </si>
   <si>
+    <t>225</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
-    <t>225</t>
-  </si>
-  <si>
     <t>226</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>27540</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1678,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V227"/>
+  <dimension ref="A1:V229"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1803,8 +1818,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1871,8 +1886,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1939,8 +1954,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -2007,8 +2022,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -2075,8 +2090,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -2143,8 +2158,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -2211,8 +2226,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -2279,8 +2294,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -2347,8 +2362,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -2415,8 +2430,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2483,8 +2498,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2551,8 +2566,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2619,8 +2634,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2687,8 +2702,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2755,8 +2770,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2823,8 +2838,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2891,8 +2906,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2959,8 +2974,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3027,8 +3042,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3095,8 +3110,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3163,8 +3178,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -3231,8 +3246,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -3299,8 +3314,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3367,8 +3382,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -3435,8 +3450,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -3503,8 +3518,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -3571,8 +3586,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3639,8 +3654,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -3843,8 +3858,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -3911,8 +3926,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -3979,8 +3994,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -4047,8 +4062,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -4115,8 +4130,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -4183,8 +4198,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -4251,8 +4266,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -4319,8 +4334,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -4387,8 +4402,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -4455,8 +4470,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -4523,8 +4538,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4591,8 +4606,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -4659,8 +4674,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -4727,8 +4742,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -4795,8 +4810,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -4863,8 +4878,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -4931,8 +4946,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -5135,8 +5150,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -5203,8 +5218,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -5271,8 +5286,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -5339,8 +5354,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -5407,8 +5422,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -5475,8 +5490,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5543,8 +5558,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -5611,8 +5626,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -5679,8 +5694,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -5747,8 +5762,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -5815,8 +5830,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -5883,8 +5898,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -5951,8 +5966,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -6019,8 +6034,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -6087,8 +6102,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -6155,8 +6170,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -6223,8 +6238,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -6291,8 +6306,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -6359,8 +6374,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -6427,8 +6442,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -6495,8 +6510,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -6563,8 +6578,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -6631,8 +6646,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -6699,8 +6714,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -6767,8 +6782,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -6835,8 +6850,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -6903,8 +6918,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -6971,8 +6986,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -7039,8 +7054,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -7107,8 +7122,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -7311,8 +7326,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -7379,8 +7394,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -7447,8 +7462,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -7515,8 +7530,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -7583,8 +7598,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -7651,8 +7666,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -7719,8 +7734,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -7787,8 +7802,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -7855,8 +7870,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -7923,8 +7938,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -7991,8 +8006,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -8059,8 +8074,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -8127,8 +8142,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -8195,8 +8210,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -8263,8 +8278,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -8399,8 +8414,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -8467,8 +8482,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -8535,8 +8550,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -8603,8 +8618,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -8671,8 +8686,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -8739,8 +8754,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -8807,8 +8822,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -9079,8 +9094,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -9147,8 +9162,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -9215,8 +9230,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -9283,8 +9298,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -9351,8 +9366,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -9419,8 +9434,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -9487,8 +9502,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -9555,8 +9570,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -9623,8 +9638,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -9691,8 +9706,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -9759,8 +9774,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -9827,8 +9842,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -9895,8 +9910,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -9963,8 +9978,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -9981,19 +9996,19 @@
         <v>274</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -10011,7 +10026,7 @@
         <v>32</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>32</v>
@@ -10031,8 +10046,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -10046,22 +10061,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H124" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="I124" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -10076,10 +10091,10 @@
         <v>30</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>32</v>
@@ -10099,8 +10114,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>33</v>
+      <c r="V124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
@@ -10117,19 +10132,19 @@
         <v>279</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -10144,10 +10159,10 @@
         <v>30</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>32</v>
@@ -10167,8 +10182,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>33</v>
+      <c r="V125" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -10185,19 +10200,19 @@
         <v>280</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -10235,8 +10250,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -10253,19 +10268,19 @@
         <v>281</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -10280,10 +10295,10 @@
         <v>30</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>32</v>
@@ -10303,8 +10318,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -10321,19 +10336,19 @@
         <v>282</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -10371,8 +10386,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -10389,19 +10404,19 @@
         <v>68</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -10419,7 +10434,7 @@
         <v>41</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>32</v>
@@ -10439,8 +10454,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -10457,19 +10472,19 @@
         <v>283</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -10484,10 +10499,10 @@
         <v>30</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>32</v>
@@ -10507,8 +10522,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
@@ -10525,19 +10540,19 @@
         <v>96</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -10552,10 +10567,10 @@
         <v>30</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>32</v>
@@ -10575,8 +10590,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -10593,19 +10608,19 @@
         <v>284</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -10620,10 +10635,10 @@
         <v>30</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>32</v>
@@ -10643,8 +10658,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -10661,19 +10676,19 @@
         <v>285</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10688,10 +10703,10 @@
         <v>30</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>32</v>
@@ -10711,8 +10726,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -10729,19 +10744,19 @@
         <v>108</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -10756,10 +10771,10 @@
         <v>30</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="P134" s="2" t="s">
         <v>32</v>
@@ -10779,8 +10794,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -10797,19 +10812,19 @@
         <v>286</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10824,10 +10839,10 @@
         <v>30</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>32</v>
@@ -10847,8 +10862,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -10865,19 +10880,19 @@
         <v>287</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10892,10 +10907,10 @@
         <v>30</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>32</v>
@@ -10915,8 +10930,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="137">
@@ -10933,19 +10948,19 @@
         <v>288</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -10960,10 +10975,10 @@
         <v>30</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="P137" s="2" t="s">
         <v>32</v>
@@ -10983,8 +10998,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="138">
@@ -11001,19 +11016,19 @@
         <v>289</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
@@ -11028,10 +11043,10 @@
         <v>30</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="P138" s="2" t="s">
         <v>32</v>
@@ -11051,8 +11066,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -11069,19 +11084,19 @@
         <v>290</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -11096,10 +11111,10 @@
         <v>30</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P139" s="2" t="s">
         <v>32</v>
@@ -11119,8 +11134,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -11137,19 +11152,19 @@
         <v>291</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -11164,10 +11179,10 @@
         <v>30</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="P140" s="2" t="s">
         <v>32</v>
@@ -11187,8 +11202,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -11205,19 +11220,19 @@
         <v>292</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -11232,10 +11247,10 @@
         <v>30</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>32</v>
@@ -11255,8 +11270,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>33</v>
+      <c r="V141" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -11273,19 +11288,19 @@
         <v>293</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>28</v>
@@ -11300,10 +11315,10 @@
         <v>30</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="P142" s="2" t="s">
         <v>32</v>
@@ -11341,19 +11356,19 @@
         <v>256</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>28</v>
@@ -11368,10 +11383,10 @@
         <v>30</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="P143" s="2" t="s">
         <v>32</v>
@@ -11409,19 +11424,19 @@
         <v>294</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>28</v>
@@ -11436,10 +11451,10 @@
         <v>30</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="P144" s="2" t="s">
         <v>32</v>
@@ -11459,8 +11474,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="145">
@@ -11474,22 +11489,22 @@
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>28</v>
@@ -11504,7 +11519,7 @@
         <v>30</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>32</v>
@@ -11527,8 +11542,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -11545,19 +11560,19 @@
         <v>299</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>28</v>
@@ -11572,7 +11587,7 @@
         <v>30</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O146" s="2" t="s">
         <v>32</v>
@@ -11595,8 +11610,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="147">
@@ -11610,22 +11625,22 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>28</v>
@@ -11640,7 +11655,7 @@
         <v>30</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O147" s="2" t="s">
         <v>32</v>
@@ -11663,8 +11678,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="148">
@@ -11681,19 +11696,19 @@
         <v>104</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>28</v>
@@ -11708,7 +11723,7 @@
         <v>30</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>32</v>
@@ -11731,8 +11746,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -11746,22 +11761,22 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>28</v>
@@ -11776,13 +11791,13 @@
         <v>30</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P149" s="2" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="Q149" s="2" t="s">
         <v>32</v>
@@ -11799,8 +11814,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="150">
@@ -11814,22 +11829,22 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>28</v>
@@ -11844,13 +11859,13 @@
         <v>30</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O150" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>32</v>
@@ -11867,8 +11882,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="151">
@@ -11885,19 +11900,19 @@
         <v>100</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>28</v>
@@ -11912,13 +11927,13 @@
         <v>30</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q151" s="2" t="s">
         <v>32</v>
@@ -11935,8 +11950,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -11953,19 +11968,19 @@
         <v>247</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>28</v>
@@ -11980,13 +11995,13 @@
         <v>30</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q152" s="2" t="s">
         <v>32</v>
@@ -12003,8 +12018,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -12018,22 +12033,22 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>28</v>
@@ -12048,13 +12063,13 @@
         <v>30</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O153" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P153" s="2" t="s">
-        <v>68</v>
+        <v>314</v>
       </c>
       <c r="Q153" s="2" t="s">
         <v>32</v>
@@ -12071,8 +12086,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="154">
@@ -12086,22 +12101,22 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>28</v>
@@ -12116,13 +12131,13 @@
         <v>30</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>212</v>
+        <v>68</v>
       </c>
       <c r="Q154" s="2" t="s">
         <v>32</v>
@@ -12139,8 +12154,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="155">
@@ -12154,22 +12169,22 @@
         <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>28</v>
@@ -12184,13 +12199,13 @@
         <v>30</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O155" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P155" s="2" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="Q155" s="2" t="s">
         <v>32</v>
@@ -12207,8 +12222,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="156">
@@ -12222,22 +12237,22 @@
         <v>22</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>28</v>
@@ -12252,13 +12267,13 @@
         <v>30</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O156" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P156" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="Q156" s="2" t="s">
         <v>32</v>
@@ -12275,8 +12290,8 @@
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="157">
@@ -12290,22 +12305,22 @@
         <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>28</v>
@@ -12320,13 +12335,13 @@
         <v>30</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P157" s="2" t="s">
-        <v>287</v>
+        <v>32</v>
       </c>
       <c r="Q157" s="2" t="s">
         <v>32</v>
@@ -12338,13 +12353,13 @@
         <v>32</v>
       </c>
       <c r="T157" s="2" t="s">
-        <v>323</v>
+        <v>32</v>
       </c>
       <c r="U157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>33</v>
+      <c r="V157" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="158">
@@ -12358,22 +12373,22 @@
         <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>28</v>
@@ -12388,13 +12403,13 @@
         <v>30</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>325</v>
+        <v>32</v>
       </c>
       <c r="O158" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P158" s="2" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="Q158" s="2" t="s">
         <v>32</v>
@@ -12406,13 +12421,13 @@
         <v>32</v>
       </c>
       <c r="T158" s="2" t="s">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="U158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>33</v>
+      <c r="V158" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="159">
@@ -12426,22 +12441,22 @@
         <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>28</v>
@@ -12456,10 +12471,10 @@
         <v>30</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P159" s="2" t="s">
         <v>32</v>
@@ -12479,8 +12494,8 @@
       <c r="U159" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>33</v>
+      <c r="V159" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="160">
@@ -12497,19 +12512,19 @@
         <v>327</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>28</v>
@@ -12547,8 +12562,8 @@
       <c r="U160" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>33</v>
+      <c r="V160" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="161">
@@ -12565,19 +12580,19 @@
         <v>253</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>28</v>
@@ -12615,8 +12630,8 @@
       <c r="U161" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>33</v>
+      <c r="V161" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="162">
@@ -12633,19 +12648,19 @@
         <v>270</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>28</v>
@@ -12660,11 +12675,11 @@
         <v>30</v>
       </c>
       <c r="N162" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O162" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O162" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P162" s="2" t="s">
         <v>32</v>
       </c>
@@ -12683,8 +12698,8 @@
       <c r="U162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>33</v>
+      <c r="V162" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="163">
@@ -12701,19 +12716,19 @@
         <v>40</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>28</v>
@@ -12751,8 +12766,8 @@
       <c r="U163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>33</v>
+      <c r="V163" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164">
@@ -12769,19 +12784,19 @@
         <v>328</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>28</v>
@@ -12819,8 +12834,8 @@
       <c r="U164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>33</v>
+      <c r="V164" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="165">
@@ -12837,19 +12852,19 @@
         <v>329</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>28</v>
@@ -12864,10 +12879,10 @@
         <v>30</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="P165" s="2" t="s">
         <v>32</v>
@@ -12905,19 +12920,19 @@
         <v>330</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>28</v>
@@ -12935,7 +12950,7 @@
         <v>32</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>331</v>
+        <v>126</v>
       </c>
       <c r="P166" s="2" t="s">
         <v>32</v>
@@ -12970,41 +12985,41 @@
         <v>22</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N167" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O167" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="J167" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K167" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L167" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M167" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N167" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O167" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="P167" s="2" t="s">
         <v>32</v>
       </c>
@@ -13023,8 +13038,8 @@
       <c r="U167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>33</v>
+      <c r="V167" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="168">
@@ -13041,7 +13056,7 @@
         <v>258</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>333</v>
@@ -13068,11 +13083,11 @@
         <v>30</v>
       </c>
       <c r="N168" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O168" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O168" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P168" s="2" t="s">
         <v>32</v>
       </c>
@@ -13091,8 +13106,8 @@
       <c r="U168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>33</v>
+      <c r="V168" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="169">
@@ -13109,7 +13124,7 @@
         <v>336</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>333</v>
@@ -13159,8 +13174,8 @@
       <c r="U169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>33</v>
+      <c r="V169" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="170">
@@ -13177,7 +13192,7 @@
         <v>337</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>333</v>
@@ -13207,7 +13222,7 @@
         <v>41</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P170" s="2" t="s">
         <v>32</v>
@@ -13245,7 +13260,7 @@
         <v>269</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>333</v>
@@ -13272,10 +13287,10 @@
         <v>30</v>
       </c>
       <c r="N171" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O171" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="O171" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="P171" s="2" t="s">
         <v>32</v>
@@ -13313,19 +13328,19 @@
         <v>338</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>28</v>
@@ -13340,10 +13355,10 @@
         <v>30</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="P172" s="2" t="s">
         <v>32</v>
@@ -13363,8 +13378,8 @@
       <c r="U172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>33</v>
+      <c r="V172" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="173">
@@ -13378,22 +13393,22 @@
         <v>22</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H173" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="I173" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>28</v>
@@ -13411,7 +13426,7 @@
         <v>32</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="P173" s="2" t="s">
         <v>32</v>
@@ -13431,8 +13446,8 @@
       <c r="U173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>33</v>
+      <c r="V173" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="174">
@@ -13449,19 +13464,19 @@
         <v>343</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>28</v>
@@ -13479,7 +13494,7 @@
         <v>32</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="P174" s="2" t="s">
         <v>32</v>
@@ -13499,8 +13514,8 @@
       <c r="U174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>33</v>
+      <c r="V174" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="175">
@@ -13517,19 +13532,19 @@
         <v>344</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>28</v>
@@ -13547,7 +13562,7 @@
         <v>32</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>345</v>
+        <v>152</v>
       </c>
       <c r="P175" s="2" t="s">
         <v>32</v>
@@ -13567,8 +13582,8 @@
       <c r="U175" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>33</v>
+      <c r="V175" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="176">
@@ -13582,41 +13597,41 @@
         <v>22</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N176" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O176" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J176" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K176" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L176" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M176" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N176" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O176" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="P176" s="2" t="s">
         <v>32</v>
       </c>
@@ -13635,8 +13650,8 @@
       <c r="U176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>33</v>
+      <c r="V176" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="177">
@@ -13650,22 +13665,22 @@
         <v>22</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>348</v>
+        <v>140</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>28</v>
@@ -13683,7 +13698,7 @@
         <v>32</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P177" s="2" t="s">
         <v>32</v>
@@ -13718,22 +13733,22 @@
         <v>22</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>28</v>
@@ -13751,7 +13766,7 @@
         <v>32</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P178" s="2" t="s">
         <v>32</v>
@@ -13786,22 +13801,22 @@
         <v>22</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>28</v>
@@ -13819,7 +13834,7 @@
         <v>32</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="P179" s="2" t="s">
         <v>32</v>
@@ -13839,8 +13854,8 @@
       <c r="U179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>33</v>
+      <c r="V179" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="180">
@@ -13854,22 +13869,22 @@
         <v>22</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F180" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="H180" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H180" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="I180" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>28</v>
@@ -13884,10 +13899,10 @@
         <v>30</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="P180" s="2" t="s">
         <v>32</v>
@@ -13907,8 +13922,8 @@
       <c r="U180" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>33</v>
+      <c r="V180" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="181">
@@ -13922,22 +13937,22 @@
         <v>22</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F181" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="H181" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="I181" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>28</v>
@@ -13952,10 +13967,10 @@
         <v>30</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="O181" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="P181" s="2" t="s">
         <v>32</v>
@@ -13975,8 +13990,8 @@
       <c r="U181" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>33</v>
+      <c r="V181" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="182">
@@ -13990,22 +14005,22 @@
         <v>22</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>140</v>
+        <v>356</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F182" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="H182" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="I182" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>28</v>
@@ -14020,10 +14035,10 @@
         <v>30</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P182" s="2" t="s">
         <v>32</v>
@@ -14043,8 +14058,8 @@
       <c r="U182" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>33</v>
+      <c r="V182" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="183">
@@ -14058,22 +14073,22 @@
         <v>22</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F183" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="H183" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="I183" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>28</v>
@@ -14088,13 +14103,13 @@
         <v>30</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q183" s="2" t="s">
         <v>32</v>
@@ -14111,8 +14126,8 @@
       <c r="U183" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>33</v>
+      <c r="V183" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="184">
@@ -14126,22 +14141,22 @@
         <v>22</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F184" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="H184" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="I184" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>28</v>
@@ -14156,13 +14171,13 @@
         <v>30</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="O184" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P184" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q184" s="2" t="s">
         <v>32</v>
@@ -14179,8 +14194,8 @@
       <c r="U184" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>33</v>
+      <c r="V184" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="185">
@@ -14194,22 +14209,22 @@
         <v>22</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F185" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="I185" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>28</v>
@@ -14224,7 +14239,7 @@
         <v>30</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="O185" s="2" t="s">
         <v>32</v>
@@ -14247,8 +14262,8 @@
       <c r="U185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>33</v>
+      <c r="V185" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="186">
@@ -14262,22 +14277,22 @@
         <v>22</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F186" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H186" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="I186" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>28</v>
@@ -14292,7 +14307,7 @@
         <v>30</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="O186" s="2" t="s">
         <v>32</v>
@@ -14315,8 +14330,8 @@
       <c r="U186" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>33</v>
+      <c r="V186" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="187">
@@ -14330,22 +14345,22 @@
         <v>22</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F187" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G187" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="H187" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="I187" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>28</v>
@@ -14360,10 +14375,10 @@
         <v>30</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="P187" s="2" t="s">
         <v>32</v>
@@ -14398,22 +14413,22 @@
         <v>22</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F188" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="H188" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H188" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="I188" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>28</v>
@@ -14428,10 +14443,10 @@
         <v>30</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="O188" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="P188" s="2" t="s">
         <v>32</v>
@@ -14466,22 +14481,22 @@
         <v>22</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>28</v>
@@ -14496,10 +14511,10 @@
         <v>30</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="O189" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="P189" s="2" t="s">
         <v>32</v>
@@ -14519,8 +14534,8 @@
       <c r="U189" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>33</v>
+      <c r="V189" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="190">
@@ -14537,19 +14552,19 @@
         <v>136</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F190" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="H190" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I190" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>28</v>
@@ -14564,13 +14579,13 @@
         <v>30</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="O190" s="2" t="s">
-        <v>322</v>
+        <v>157</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q190" s="2" t="s">
         <v>32</v>
@@ -14587,8 +14602,8 @@
       <c r="U190" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>33</v>
+      <c r="V190" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="191">
@@ -14605,19 +14620,19 @@
         <v>333</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F191" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="H191" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H191" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I191" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>28</v>
@@ -14632,13 +14647,13 @@
         <v>30</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="O191" s="2" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="P191" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q191" s="2" t="s">
         <v>32</v>
@@ -14655,8 +14670,8 @@
       <c r="U191" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>33</v>
+      <c r="V191" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="192">
@@ -14670,22 +14685,22 @@
         <v>22</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F192" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H192" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I192" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>28</v>
@@ -14700,13 +14715,13 @@
         <v>30</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P192" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q192" s="2" t="s">
         <v>32</v>
@@ -14723,8 +14738,8 @@
       <c r="U192" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>33</v>
+      <c r="V192" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="193">
@@ -14738,22 +14753,22 @@
         <v>22</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F193" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="H193" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H193" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I193" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>28</v>
@@ -14768,13 +14783,13 @@
         <v>30</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="O193" s="2" t="s">
-        <v>175</v>
+        <v>339</v>
       </c>
       <c r="P193" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q193" s="2" t="s">
         <v>32</v>
@@ -14791,8 +14806,8 @@
       <c r="U193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>33</v>
+      <c r="V193" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="194">
@@ -14806,22 +14821,22 @@
         <v>22</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F194" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="H194" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I194" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>28</v>
@@ -14836,10 +14851,10 @@
         <v>30</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="O194" s="2" t="s">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="P194" s="2" t="s">
         <v>32</v>
@@ -14859,8 +14874,8 @@
       <c r="U194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>33</v>
+      <c r="V194" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -14874,22 +14889,22 @@
         <v>22</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F195" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="H195" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H195" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I195" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>28</v>
@@ -14904,10 +14919,10 @@
         <v>30</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>372</v>
+        <v>131</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P195" s="2" t="s">
         <v>32</v>
@@ -14927,8 +14942,8 @@
       <c r="U195" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>33</v>
+      <c r="V195" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="196">
@@ -14942,22 +14957,22 @@
         <v>22</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F196" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="H196" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H196" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I196" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>28</v>
@@ -14972,10 +14987,10 @@
         <v>30</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O196" s="2" t="s">
-        <v>290</v>
+        <v>373</v>
       </c>
       <c r="P196" s="2" t="s">
         <v>32</v>
@@ -14995,8 +15010,8 @@
       <c r="U196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>33</v>
+      <c r="V196" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="197">
@@ -15010,22 +15025,22 @@
         <v>22</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F197" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="H197" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I197" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>28</v>
@@ -15040,10 +15055,10 @@
         <v>30</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>158</v>
+        <v>374</v>
       </c>
       <c r="O197" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P197" s="2" t="s">
         <v>32</v>
@@ -15063,8 +15078,8 @@
       <c r="U197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>33</v>
+      <c r="V197" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="198">
@@ -15078,22 +15093,22 @@
         <v>22</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F198" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="H198" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I198" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>28</v>
@@ -15108,10 +15123,10 @@
         <v>30</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="P198" s="2" t="s">
         <v>32</v>
@@ -15131,8 +15146,8 @@
       <c r="U198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>33</v>
+      <c r="V198" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="199">
@@ -15146,22 +15161,22 @@
         <v>22</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F199" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="H199" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I199" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>28</v>
@@ -15176,10 +15191,10 @@
         <v>30</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="P199" s="2" t="s">
         <v>32</v>
@@ -15199,8 +15214,8 @@
       <c r="U199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>33</v>
+      <c r="V199" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="200">
@@ -15214,22 +15229,22 @@
         <v>22</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F200" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="H200" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I200" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>28</v>
@@ -15244,10 +15259,10 @@
         <v>30</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="P200" s="2" t="s">
         <v>32</v>
@@ -15267,8 +15282,8 @@
       <c r="U200" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>33</v>
+      <c r="V200" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="201">
@@ -15282,22 +15297,22 @@
         <v>22</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F201" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G201" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I201" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>28</v>
@@ -15315,7 +15330,7 @@
         <v>69</v>
       </c>
       <c r="O201" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="P201" s="2" t="s">
         <v>32</v>
@@ -15335,8 +15350,8 @@
       <c r="U201" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>33</v>
+      <c r="V201" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="202">
@@ -15353,19 +15368,19 @@
         <v>76</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F202" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="H202" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I202" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>28</v>
@@ -15380,10 +15395,10 @@
         <v>30</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="P202" s="2" t="s">
         <v>32</v>
@@ -15403,8 +15418,8 @@
       <c r="U202" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>33</v>
+      <c r="V202" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="203">
@@ -15418,22 +15433,22 @@
         <v>22</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F203" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="H203" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I203" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>28</v>
@@ -15451,7 +15466,7 @@
         <v>32</v>
       </c>
       <c r="O203" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P203" s="2" t="s">
         <v>32</v>
@@ -15471,8 +15486,8 @@
       <c r="U203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>33</v>
+      <c r="V203" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="204">
@@ -15486,22 +15501,22 @@
         <v>22</v>
       </c>
       <c r="D204" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G204" s="1" t="s">
+      <c r="H204" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I204" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>28</v>
@@ -15519,7 +15534,7 @@
         <v>32</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="P204" s="2" t="s">
         <v>32</v>
@@ -15539,8 +15554,8 @@
       <c r="U204" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>33</v>
+      <c r="V204" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="205">
@@ -15554,22 +15569,22 @@
         <v>22</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F205" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="H205" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I205" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>28</v>
@@ -15587,7 +15602,7 @@
         <v>32</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P205" s="2" t="s">
         <v>32</v>
@@ -15622,22 +15637,22 @@
         <v>22</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>28</v>
@@ -15655,7 +15670,7 @@
         <v>32</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="P206" s="2" t="s">
         <v>32</v>
@@ -15675,8 +15690,8 @@
       <c r="U206" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>33</v>
+      <c r="V206" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="207">
@@ -15690,22 +15705,22 @@
         <v>22</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="I207" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J207" s="2" t="s">
         <v>28</v>
@@ -15758,22 +15773,22 @@
         <v>22</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>28</v>
@@ -15811,8 +15826,8 @@
       <c r="U208" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>33</v>
+      <c r="V208" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="209">
@@ -15826,22 +15841,22 @@
         <v>22</v>
       </c>
       <c r="D209" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H209" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="I209" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>28</v>
@@ -15859,7 +15874,7 @@
         <v>32</v>
       </c>
       <c r="O209" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P209" s="2" t="s">
         <v>32</v>
@@ -15871,7 +15886,7 @@
         <v>32</v>
       </c>
       <c r="S209" s="2" t="s">
-        <v>393</v>
+        <v>32</v>
       </c>
       <c r="T209" s="2" t="s">
         <v>32</v>
@@ -15879,8 +15894,8 @@
       <c r="U209" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>33</v>
+      <c r="V209" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="210">
@@ -15894,61 +15909,61 @@
         <v>22</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N210" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O210" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P210" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q210" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R210" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S210" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J210" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K210" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L210" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M210" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N210" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O210" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P210" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q210" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R210" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S210" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="T210" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U210" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>33</v>
+      <c r="V210" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="211">
@@ -15962,61 +15977,61 @@
         <v>22</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N211" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O211" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P211" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q211" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R211" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S211" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J211" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K211" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L211" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M211" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N211" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O211" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P211" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q211" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R211" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S211" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="T211" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>33</v>
+      <c r="V211" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="212">
@@ -16030,22 +16045,22 @@
         <v>22</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>28</v>
@@ -16075,7 +16090,7 @@
         <v>32</v>
       </c>
       <c r="S212" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="T212" s="2" t="s">
         <v>32</v>
@@ -16083,8 +16098,8 @@
       <c r="U212" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>33</v>
+      <c r="V212" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -16098,61 +16113,61 @@
         <v>22</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N213" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O213" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P213" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q213" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R213" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S213" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I213" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J213" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K213" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L213" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M213" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N213" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O213" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P213" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q213" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R213" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S213" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="T213" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U213" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>33</v>
+      <c r="V213" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="214">
@@ -16169,19 +16184,19 @@
         <v>132</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>28</v>
@@ -16211,7 +16226,7 @@
         <v>32</v>
       </c>
       <c r="S214" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T214" s="2" t="s">
         <v>32</v>
@@ -16219,8 +16234,8 @@
       <c r="U214" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>33</v>
+      <c r="V214" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="215">
@@ -16234,61 +16249,61 @@
         <v>22</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S215" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E215" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J215" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K215" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M215" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N215" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O215" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P215" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q215" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R215" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S215" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="T215" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U215" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>33</v>
+      <c r="V215" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="216">
@@ -16302,61 +16317,61 @@
         <v>22</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N216" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O216" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P216" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q216" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R216" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S216" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E216" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I216" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J216" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K216" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M216" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N216" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O216" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P216" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q216" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R216" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S216" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="T216" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U216" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>33</v>
+      <c r="V216" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="217">
@@ -16370,22 +16385,22 @@
         <v>22</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>28</v>
@@ -16415,7 +16430,7 @@
         <v>32</v>
       </c>
       <c r="S217" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T217" s="2" t="s">
         <v>32</v>
@@ -16423,8 +16438,8 @@
       <c r="U217" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>33</v>
+      <c r="V217" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="218">
@@ -16438,61 +16453,61 @@
         <v>22</v>
       </c>
       <c r="D218" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N218" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O218" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P218" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q218" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R218" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S218" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I218" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J218" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K218" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M218" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N218" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O218" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P218" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q218" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R218" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S218" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="T218" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U218" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>33</v>
+      <c r="V218" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="219">
@@ -16506,61 +16521,61 @@
         <v>22</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N219" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O219" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P219" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q219" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R219" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S219" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I219" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J219" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K219" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M219" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N219" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O219" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P219" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q219" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R219" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S219" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="T219" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U219" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>33</v>
+      <c r="V219" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="220">
@@ -16577,19 +16592,19 @@
         <v>128</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>28</v>
@@ -16619,7 +16634,7 @@
         <v>32</v>
       </c>
       <c r="S220" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T220" s="2" t="s">
         <v>32</v>
@@ -16627,8 +16642,8 @@
       <c r="U220" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>33</v>
+      <c r="V220" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="221">
@@ -16642,61 +16657,61 @@
         <v>22</v>
       </c>
       <c r="D221" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N221" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O221" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P221" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q221" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R221" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S221" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E221" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I221" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J221" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K221" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M221" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N221" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O221" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P221" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q221" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R221" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S221" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="T221" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U221" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>33</v>
+      <c r="V221" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="222">
@@ -16710,61 +16725,61 @@
         <v>22</v>
       </c>
       <c r="D222" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N222" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O222" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P222" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q222" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R222" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S222" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E222" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I222" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J222" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K222" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M222" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N222" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O222" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P222" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q222" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R222" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S222" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="T222" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U222" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V222" s="1" t="s">
-        <v>33</v>
+      <c r="V222" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="223">
@@ -16778,22 +16793,22 @@
         <v>22</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>416</v>
+        <v>141</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>28</v>
@@ -16823,7 +16838,7 @@
         <v>32</v>
       </c>
       <c r="S223" s="2" t="s">
-        <v>159</v>
+        <v>415</v>
       </c>
       <c r="T223" s="2" t="s">
         <v>32</v>
@@ -16831,8 +16846,8 @@
       <c r="U223" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>33</v>
+      <c r="V223" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="224">
@@ -16849,19 +16864,19 @@
         <v>121</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>28</v>
@@ -16891,7 +16906,7 @@
         <v>32</v>
       </c>
       <c r="S224" s="2" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="T224" s="2" t="s">
         <v>32</v>
@@ -16899,8 +16914,8 @@
       <c r="U224" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>33</v>
+      <c r="V224" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="225">
@@ -16914,22 +16929,22 @@
         <v>22</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>28</v>
@@ -16959,7 +16974,7 @@
         <v>32</v>
       </c>
       <c r="S225" s="2" t="s">
-        <v>418</v>
+        <v>93</v>
       </c>
       <c r="T225" s="2" t="s">
         <v>32</v>
@@ -16967,8 +16982,8 @@
       <c r="U225" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V225" s="1" t="s">
-        <v>33</v>
+      <c r="V225" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="226">
@@ -16982,22 +16997,22 @@
         <v>22</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>28</v>
@@ -17027,7 +17042,7 @@
         <v>32</v>
       </c>
       <c r="S226" s="2" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="T226" s="2" t="s">
         <v>32</v>
@@ -17050,60 +17065,196 @@
         <v>22</v>
       </c>
       <c r="D227" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N227" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O227" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P227" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q227" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R227" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S227" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="T227" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U227" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V227" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N228" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O228" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P228" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q228" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R228" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S228" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T228" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U228" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V228" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="E229" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F227" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H227" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I227" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J227" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K227" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M227" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N227" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O227" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P227" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q227" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R227" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S227" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="T227" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U227" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V227" s="2" t="s">
+      <c r="F229" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J229" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N229" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="O229" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P229" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q229" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R229" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S229" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T229" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U229" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V229" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-KGZ.xlsx
+++ b/Excel-XLSX/UN-KGZ.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>vK49kS</t>
+    <t>GgQz2Y</t>
   </si>
   <si>
     <t>1993</t>
@@ -1311,25 +1311,25 @@
     <t>233</t>
   </si>
   <si>
+    <t>925</t>
+  </si>
+  <si>
     <t>234</t>
   </si>
   <si>
-    <t>2074</t>
+    <t>1390</t>
   </si>
   <si>
     <t>238</t>
   </si>
   <si>
+    <t>23412</t>
+  </si>
+  <si>
     <t>239</t>
   </si>
   <si>
-    <t>25476</t>
-  </si>
-  <si>
     <t>240</t>
-  </si>
-  <si>
-    <t>241</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1714,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V242"/>
+  <dimension ref="A1:V241"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -17335,10 +17335,10 @@
         <v>30</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="P230" s="2" t="s">
         <v>32</v>
@@ -17583,16 +17583,16 @@
         <v>427</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>285</v>
+        <v>179</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>286</v>
+        <v>180</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>28</v>
@@ -17610,7 +17610,7 @@
         <v>32</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P234" s="2" t="s">
         <v>32</v>
@@ -17622,7 +17622,7 @@
         <v>32</v>
       </c>
       <c r="S234" s="2" t="s">
-        <v>32</v>
+        <v>431</v>
       </c>
       <c r="T234" s="2" t="s">
         <v>32</v>
@@ -17645,22 +17645,22 @@
         <v>22</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>427</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="J235" s="2" t="s">
         <v>28</v>
@@ -17675,10 +17675,10 @@
         <v>30</v>
       </c>
       <c r="N235" s="2" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="O235" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P235" s="2" t="s">
         <v>32</v>
@@ -17690,7 +17690,7 @@
         <v>32</v>
       </c>
       <c r="S235" s="2" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="T235" s="2" t="s">
         <v>32</v>
@@ -17719,16 +17719,16 @@
         <v>427</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="J236" s="2" t="s">
         <v>28</v>
@@ -17743,10 +17743,10 @@
         <v>30</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="O236" s="2" t="s">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="P236" s="2" t="s">
         <v>32</v>
@@ -17787,16 +17787,16 @@
         <v>427</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="J237" s="2" t="s">
         <v>28</v>
@@ -17811,10 +17811,10 @@
         <v>30</v>
       </c>
       <c r="N237" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="O237" s="2" t="s">
-        <v>432</v>
+        <v>45</v>
       </c>
       <c r="P237" s="2" t="s">
         <v>32</v>
@@ -17855,16 +17855,16 @@
         <v>427</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="J238" s="2" t="s">
         <v>28</v>
@@ -17879,10 +17879,10 @@
         <v>30</v>
       </c>
       <c r="N238" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="P238" s="2" t="s">
         <v>32</v>
@@ -17917,22 +17917,22 @@
         <v>22</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>427</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>340</v>
+        <v>421</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>341</v>
+        <v>422</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="J239" s="2" t="s">
         <v>28</v>
@@ -17947,10 +17947,10 @@
         <v>30</v>
       </c>
       <c r="N239" s="2" t="s">
-        <v>32</v>
+        <v>435</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="P239" s="2" t="s">
         <v>32</v>
@@ -17985,22 +17985,22 @@
         <v>22</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>427</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>420</v>
+        <v>313</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>421</v>
+        <v>314</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>422</v>
+        <v>315</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>423</v>
+        <v>315</v>
       </c>
       <c r="J240" s="2" t="s">
         <v>28</v>
@@ -18015,10 +18015,10 @@
         <v>30</v>
       </c>
       <c r="N240" s="2" t="s">
-        <v>435</v>
+        <v>89</v>
       </c>
       <c r="O240" s="2" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="P240" s="2" t="s">
         <v>32</v>
@@ -18053,22 +18053,22 @@
         <v>22</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>427</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="J241" s="2" t="s">
         <v>28</v>
@@ -18083,10 +18083,10 @@
         <v>30</v>
       </c>
       <c r="N241" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="O241" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="P241" s="2" t="s">
         <v>32</v>
@@ -18107,74 +18107,6 @@
         <v>33</v>
       </c>
       <c r="V241" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H242" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I242" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J242" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K242" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L242" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M242" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N242" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O242" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P242" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q242" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R242" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S242" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T242" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U242" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V242" s="2" t="s">
         <v>32</v>
       </c>
     </row>
